--- a/Scalability/Scalability Results.xlsx
+++ b/Scalability/Scalability Results.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmven\Google Drive\MSBA Coursework\MSBA\6510 Optum\Synthetic Data Methodology\Synthetic-Tabular-Data-Generation\Generating-Synthetic-Data-using-GANs\Scalability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D19FF-78A5-4514-A66C-8AA9197C9085}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570919B-E460-46C6-B96D-43B0BA011222}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGAN" sheetId="1" r:id="rId1"/>
-    <sheet name="CTGAN" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="CTGAN" sheetId="2" r:id="rId3"/>
+    <sheet name="Charts" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t># Columns</t>
   </si>
@@ -51,6 +53,15 @@
   </si>
   <si>
     <t>Numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGAN </t>
+  </si>
+  <si>
+    <t>CTGAN</t>
+  </si>
+  <si>
+    <t>TGAN</t>
   </si>
 </sst>
 </file>
@@ -346,20 +357,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -496,6 +493,1139 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CTGAN!$I$22:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CTGAN!$J$22:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B61-4B6C-B716-BC5DF44B226F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="160177055"/>
+        <c:axId val="158574751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="160177055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Columns</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158574751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="158574751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160177055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TGAN </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CTGAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D254-4C96-BFF6-DF0566821B17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1445535"/>
+        <c:axId val="123450063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1445535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123450063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123450063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Categorical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$9:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TGAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CTGAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$9:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04C8-40A4-87B9-28D9D3131FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Continuous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$9:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TGAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CTGAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$9:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04C8-40A4-87B9-28D9D3131FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="171647871"/>
+        <c:axId val="120064191"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171647871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120064191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120064191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171647871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -721,20 +1851,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -891,7 +2007,9 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1272,7 +2390,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1618,6 +2738,986 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Increasing Number of Rows</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CTGAN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C29B-4941-835B-56C4830B513D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TGAN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4430</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C29B-4941-835B-56C4830B513D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="72"/>
+        <c:overlap val="-8"/>
+        <c:axId val="1187643152"/>
+        <c:axId val="1159171088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1187643152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159171088"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1159171088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187643152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25583312828083987"/>
+          <c:y val="0.9430621736904059"/>
+          <c:w val="0.56906291010498689"/>
+          <c:h val="4.1373620795902816E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Increasing Number of Columns</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CTGAN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1800-4054-87EC-4924D426FDAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TGAN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1800-4054-87EC-4924D426FDAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="72"/>
+        <c:overlap val="-8"/>
+        <c:axId val="1187643152"/>
+        <c:axId val="1159171088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1187643152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159171088"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1159171088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187643152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25583312828083987"/>
+          <c:y val="0.9430621736904059"/>
+          <c:w val="0.56906291010498689"/>
+          <c:h val="4.1373620795902816E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1630,7 +3730,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1826,20 +3926,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1929,6 +4015,8 @@
         <c:crossAx val="118899919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1970,7 +4058,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1996,7 +4084,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2184,20 +4272,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2287,6 +4361,7 @@
         <c:crossAx val="156800559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2328,7 +4403,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2354,7 +4429,9 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2698,366 +4775,127 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>CTGAN!$I$22:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CTGAN!$J$22:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>479</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B61-4B6C-B716-BC5DF44B226F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="160177055"/>
-        <c:axId val="158574751"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="160177055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># Columns</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="158574751"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="158574751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="700"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="160177055"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3377,6 +5215,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3893,7 +5771,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4396,7 +6274,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4899,7 +6777,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5402,7 +7280,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5905,7 +7783,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6408,7 +8286,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6911,7 +8789,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7414,20 +9292,2032 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904874</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7454,16 +11344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7490,16 +11380,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7564,6 +11454,85 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FBF7F4-BAE1-4295-A46D-82D9DEDBF1D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70F857C-E538-4C69-AB10-3BE147002122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7639,16 +11608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7704,6 +11673,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45866692-5D18-4B39-9BA6-C89BC1EB469D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014CB7AB-A9F9-4EB7-8012-BDC74C1B578E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7916,7 +11962,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A19" sqref="A19:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8158,14 +12204,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F276E9A2-871F-450D-82D1-D0DF9C5C48F1}">
+  <dimension ref="B4:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2942</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>526</v>
+      </c>
+      <c r="K6" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3784</v>
+      </c>
+      <c r="D7" s="1">
+        <v>90</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1530</v>
+      </c>
+      <c r="K7" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3031</v>
+      </c>
+      <c r="D8" s="1">
+        <v>267</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2128</v>
+      </c>
+      <c r="K8" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3539</v>
+      </c>
+      <c r="D9" s="1">
+        <v>301</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2453</v>
+      </c>
+      <c r="K9" s="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4204</v>
+      </c>
+      <c r="D10" s="1">
+        <v>298</v>
+      </c>
+      <c r="I10" s="1">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3105</v>
+      </c>
+      <c r="K10" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>80000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4430</v>
+      </c>
+      <c r="D12" s="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8398,4 +12626,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4797E41-A189-4BBC-BB35-D092505058C2}">
+  <dimension ref="B3:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>